--- a/Data/Excel/FCFS/1.xlsx
+++ b/Data/Excel/FCFS/1.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.1</v>
+        <v>54.87</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.56</v>
+        <v>54.34</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.03</v>
+        <v>53.81</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.5</v>
+        <v>53.27</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.96</v>
+        <v>52.74</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.43</v>
+        <v>52.21</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9</v>
+        <v>51.67</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.36</v>
+        <v>51.14</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.83</v>
+        <v>50.61</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.3</v>
+        <v>50.07</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.76</v>
+        <v>49.54</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.23</v>
+        <v>49.01</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.7</v>
+        <v>48.47</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.16</v>
+        <v>47.94</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.63</v>
+        <v>47.41</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1</v>
+        <v>46.87</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.56</v>
+        <v>46.34</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.03</v>
+        <v>45.81</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.5</v>
+        <v>45.27</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.96</v>
+        <v>44.74</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.43</v>
+        <v>44.21</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.9</v>
+        <v>43.67</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.36</v>
+        <v>43.14</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.83</v>
+        <v>42.61</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.3</v>
+        <v>42.07</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.76</v>
+        <v>41.54</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.23</v>
+        <v>41.01</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.7</v>
+        <v>40.47</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.16</v>
+        <v>39.94</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.63</v>
+        <v>39.41</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.1</v>
+        <v>38.87</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.56</v>
+        <v>38.34</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.03</v>
+        <v>37.81</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.5</v>
+        <v>37.27</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.96</v>
+        <v>36.74</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.43</v>
+        <v>36.21</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.9</v>
+        <v>35.67</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.36</v>
+        <v>35.14</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.83</v>
+        <v>34.61</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.3</v>
+        <v>34.07</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.76</v>
+        <v>33.54</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.23</v>
+        <v>33.01</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.7</v>
+        <v>32.47</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.16</v>
+        <v>31.94</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.63</v>
+        <v>31.41</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.1</v>
+        <v>30.87</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.56</v>
+        <v>30.34</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.03</v>
+        <v>29.81</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.5</v>
+        <v>29.27</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.96</v>
+        <v>28.74</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.43</v>
+        <v>28.21</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.9</v>
+        <v>27.67</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.36</v>
+        <v>27.14</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.83</v>
+        <v>26.61</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.3</v>
+        <v>26.07</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.76</v>
+        <v>25.54</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.23</v>
+        <v>25.01</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.7</v>
+        <v>24.47</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.16</v>
+        <v>23.94</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.63</v>
+        <v>23.41</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.1</v>
+        <v>22.87</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.56</v>
+        <v>22.34</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.03</v>
+        <v>21.81</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.5</v>
+        <v>21.27</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.96</v>
+        <v>20.74</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.43</v>
+        <v>20.21</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.9</v>
+        <v>19.67</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.36</v>
+        <v>19.14</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.83</v>
+        <v>18.61</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.3</v>
+        <v>18.07</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.76</v>
+        <v>17.54</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,7 +1881,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.23</v>
+        <v>17.01</v>
       </c>
       <c r="C73" t="n">
         <v>-2</v>
@@ -1901,7 +1901,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.7</v>
+        <v>16.47</v>
       </c>
       <c r="C74" t="n">
         <v>-2</v>
@@ -1921,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.16</v>
+        <v>15.94</v>
       </c>
       <c r="C75" t="n">
         <v>-2</v>
@@ -1941,7 +1941,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.63</v>
+        <v>15.41</v>
       </c>
       <c r="C76" t="n">
         <v>-2</v>
@@ -1961,7 +1961,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.1</v>
+        <v>14.87</v>
       </c>
       <c r="C77" t="n">
         <v>-2</v>
@@ -1981,7 +1981,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.56</v>
+        <v>14.34</v>
       </c>
       <c r="C78" t="n">
         <v>-2</v>
@@ -2001,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.03</v>
+        <v>13.81</v>
       </c>
       <c r="C79" t="n">
         <v>-2</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.5</v>
+        <v>13.27</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.05</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.97</v>
+        <v>12.74</v>
       </c>
       <c r="C81" t="n">
         <v>-2.06</v>
@@ -2050,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.43</v>
+        <v>12.21</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.05</v>
+        <v>-2.08</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.9</v>
+        <v>11.68</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.01</v>
+        <v>-2.07</v>
       </c>
       <c r="D83" t="n">
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.37</v>
+        <v>11.15</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.96</v>
+        <v>-2.04</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.84</v>
+        <v>10.62</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.88</v>
+        <v>-1.99</v>
       </c>
       <c r="D85" t="n">
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.32</v>
+        <v>10.09</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.78</v>
+        <v>-1.92</v>
       </c>
       <c r="D86" t="n">
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.800000000000001</v>
+        <v>9.56</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.66</v>
+        <v>-1.83</v>
       </c>
       <c r="D87" t="n">
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2181,16 +2181,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.279999999999999</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.53</v>
+        <v>-1.73</v>
       </c>
       <c r="D88" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2201,18 +2201,538 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.8</v>
+        <v>8.52</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.38</v>
+        <v>-1.6</v>
       </c>
       <c r="D89" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>59.92</v>
+        <v>54.44</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2295,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.26</v>
+        <v>53.78</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2315,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.61</v>
+        <v>53.13</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2335,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>57.96</v>
+        <v>52.49</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2355,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>57.32</v>
+        <v>51.84</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2375,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.69</v>
+        <v>51.21</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2395,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.05</v>
+        <v>50.57</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2415,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>55.42</v>
+        <v>49.94</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2435,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.8</v>
+        <v>49.32</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2455,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54.18</v>
+        <v>48.7</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2475,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>53.55</v>
+        <v>48.07</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2495,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>52.94</v>
+        <v>47.46</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2515,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.32</v>
+        <v>46.84</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2535,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>51.71</v>
+        <v>46.23</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2555,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>51.09</v>
+        <v>45.61</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2575,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>50.48</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2595,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>49.87</v>
+        <v>44.39</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2615,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>49.26</v>
+        <v>43.78</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2635,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>48.65</v>
+        <v>43.17</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2655,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.05</v>
+        <v>42.57</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2675,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>47.44</v>
+        <v>41.96</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2695,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>46.84</v>
+        <v>41.36</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2715,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>46.23</v>
+        <v>40.75</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2735,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>45.63</v>
+        <v>40.15</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2755,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>45.02</v>
+        <v>39.54</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2775,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>44.42</v>
+        <v>38.94</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2795,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>43.82</v>
+        <v>38.34</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2815,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>43.21</v>
+        <v>37.73</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2835,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>42.61</v>
+        <v>37.13</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2855,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>42.01</v>
+        <v>36.53</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2875,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.41</v>
+        <v>35.93</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2895,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>40.8</v>
+        <v>35.32</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2915,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.2</v>
+        <v>34.72</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2935,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>39.6</v>
+        <v>34.12</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2955,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>33.52</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -2975,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>38.4</v>
+        <v>32.92</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -2995,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>37.8</v>
+        <v>32.32</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -3015,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>37.2</v>
+        <v>31.72</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -3035,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>36.6</v>
+        <v>31.12</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -3055,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>36</v>
+        <v>30.52</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -3075,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>35.4</v>
+        <v>29.92</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -3095,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>34.79</v>
+        <v>29.31</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -3115,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>34.19</v>
+        <v>28.71</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -3135,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>33.59</v>
+        <v>28.11</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -3155,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>32.99</v>
+        <v>27.51</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -3175,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>32.39</v>
+        <v>26.91</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -3195,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>31.79</v>
+        <v>26.31</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3215,10 +3735,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>31.19</v>
+        <v>25.75</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3235,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>30.59</v>
+        <v>25.21</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3255,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>29.99</v>
+        <v>24.7</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3275,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>29.39</v>
+        <v>24.21</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3295,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>28.79</v>
+        <v>23.74</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3315,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>28.19</v>
+        <v>23.3</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3335,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>27.59</v>
+        <v>22.9</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3355,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>26.99</v>
+        <v>22.54</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3375,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>26.39</v>
+        <v>22.23</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3395,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>25.79</v>
+        <v>21.95</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3415,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>25.19</v>
+        <v>21.7</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3435,10 +3955,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>24.59</v>
+        <v>21.48</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3455,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>23.99</v>
+        <v>21.28</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3475,10 +3995,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>23.39</v>
+        <v>21.11</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3495,10 +4015,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>22.79</v>
+        <v>20.95</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3515,10 +4035,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>22.19</v>
+        <v>20.81</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3535,10 +4055,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>21.59</v>
+        <v>20.69</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3555,10 +4075,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>20.99</v>
+        <v>20.58</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3575,10 +4095,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>20.39</v>
+        <v>20.49</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3595,10 +4115,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>19.79</v>
+        <v>20.4</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3615,10 +4135,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>19.19</v>
+        <v>20.32</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3635,10 +4155,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>18.59</v>
+        <v>20.26</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3655,10 +4175,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>17.99</v>
+        <v>20.19</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3675,10 +4195,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>17.39</v>
+        <v>20.14</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3695,10 +4215,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>16.79</v>
+        <v>20.09</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3715,10 +4235,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>16.19</v>
+        <v>20.05</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3735,10 +4255,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>15.59</v>
+        <v>20.01</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3755,10 +4275,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>14.99</v>
+        <v>19.98</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E76" t="n">
         <v>-1.57</v>
@@ -3775,10 +4295,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>14.39</v>
+        <v>19.95</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E77" t="n">
         <v>-1.57</v>
@@ -3795,10 +4315,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>13.79</v>
+        <v>19.92</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -3815,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>13.19</v>
+        <v>19.9</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E79" t="n">
         <v>-1.57</v>
@@ -3832,16 +4352,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>12.59</v>
+        <v>19.88</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3852,16 +4372,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>11.99</v>
+        <v>19.86</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3872,16 +4392,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>11.39</v>
+        <v>19.84</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3892,16 +4412,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>10.79</v>
+        <v>19.83</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.58</v>
+        <v>-1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3912,16 +4432,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>10.2</v>
+        <v>19.82</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.61</v>
+        <v>-1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3932,16 +4452,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>9.609999999999999</v>
+        <v>19.8</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.64</v>
+        <v>-1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3952,16 +4472,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>9.02</v>
+        <v>19.79</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.67</v>
+        <v>-1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3972,16 +4492,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>8.44</v>
+        <v>19.75</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>1.07</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.7</v>
+        <v>-1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -3992,16 +4512,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>7.86</v>
+        <v>19.68</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.74</v>
+        <v>-1.57</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4012,18 +4532,538 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>7.29</v>
+        <v>19.58</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>1.79</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.78</v>
+        <v>-1.57</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C111" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C112" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4038,7 +5078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4083,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.17</v>
+        <v>-58.48</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4103,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-59.51</v>
+        <v>-57.83</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4123,7 +5163,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.86</v>
+        <v>-57.17</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4143,7 +5183,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-58.21</v>
+        <v>-56.53</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4163,7 +5203,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-57.57</v>
+        <v>-55.88</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4183,7 +5223,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-56.93</v>
+        <v>-55.25</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4203,7 +5243,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-56.3</v>
+        <v>-54.61</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4223,7 +5263,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.67</v>
+        <v>-53.99</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4243,7 +5283,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.04</v>
+        <v>-53.36</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4263,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-54.42</v>
+        <v>-52.74</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4283,7 +5323,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-53.8</v>
+        <v>-52.12</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4303,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-53.18</v>
+        <v>-51.5</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4323,7 +5363,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-52.56</v>
+        <v>-50.88</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4343,7 +5383,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.95</v>
+        <v>-50.27</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4363,7 +5403,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.34</v>
+        <v>-49.65</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4383,7 +5423,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.73</v>
+        <v>-49.04</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4403,7 +5443,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.12</v>
+        <v>-48.43</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4423,7 +5463,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-49.51</v>
+        <v>-47.82</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4443,7 +5483,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-48.9</v>
+        <v>-47.22</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4463,7 +5503,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-48.29</v>
+        <v>-46.61</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4483,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-47.69</v>
+        <v>-46</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4503,7 +5543,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-47.08</v>
+        <v>-45.4</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4523,7 +5563,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-46.47</v>
+        <v>-44.79</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4543,7 +5583,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-45.87</v>
+        <v>-44.19</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4563,7 +5603,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-45.27</v>
+        <v>-43.58</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4583,7 +5623,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-44.66</v>
+        <v>-42.98</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4603,7 +5643,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-44.06</v>
+        <v>-42.38</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4623,7 +5663,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-43.46</v>
+        <v>-41.77</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4643,7 +5683,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-42.85</v>
+        <v>-41.17</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4663,7 +5703,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-42.25</v>
+        <v>-40.57</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4683,7 +5723,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-41.65</v>
+        <v>-39.97</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4703,7 +5743,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-41.05</v>
+        <v>-39.37</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4723,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-40.45</v>
+        <v>-38.76</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4743,7 +5783,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-39.85</v>
+        <v>-38.16</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4763,7 +5803,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-39.24</v>
+        <v>-37.56</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4783,7 +5823,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-38.64</v>
+        <v>-36.96</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4803,7 +5843,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-38.04</v>
+        <v>-36.36</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4823,7 +5863,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-37.44</v>
+        <v>-35.76</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4843,7 +5883,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-36.84</v>
+        <v>-35.16</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4863,7 +5903,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-36.24</v>
+        <v>-34.56</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4883,7 +5923,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-35.64</v>
+        <v>-33.96</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4903,7 +5943,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-35.04</v>
+        <v>-33.36</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4923,7 +5963,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-34.44</v>
+        <v>-32.76</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4943,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-33.84</v>
+        <v>-32.15</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4963,7 +6003,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-33.24</v>
+        <v>-31.55</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4983,7 +6023,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-32.64</v>
+        <v>-30.95</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -5003,13 +6043,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-32.04</v>
+        <v>-30.35</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E48" t="n">
         <v>-0</v>
@@ -5023,13 +6063,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-31.44</v>
+        <v>-29.79</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E49" t="n">
         <v>-0</v>
@@ -5043,13 +6083,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-30.84</v>
+        <v>-29.25</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E50" t="n">
         <v>-0</v>
@@ -5063,13 +6103,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-30.24</v>
+        <v>-28.74</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -5083,13 +6123,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-29.64</v>
+        <v>-28.25</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -5103,13 +6143,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-29.04</v>
+        <v>-27.78</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -5123,13 +6163,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-28.44</v>
+        <v>-27.34</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -5143,13 +6183,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.84</v>
+        <v>-26.94</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -5163,13 +6203,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.24</v>
+        <v>-26.58</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -5183,13 +6223,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-26.64</v>
+        <v>-26.27</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -5203,13 +6243,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-26.04</v>
+        <v>-25.99</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5223,13 +6263,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.44</v>
+        <v>-25.74</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5243,13 +6283,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-24.84</v>
+        <v>-25.52</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5263,13 +6303,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-24.24</v>
+        <v>-25.32</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5283,13 +6323,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-23.64</v>
+        <v>-25.15</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5303,13 +6343,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-23.04</v>
+        <v>-24.99</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5323,13 +6363,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-22.44</v>
+        <v>-24.86</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5343,13 +6383,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-21.84</v>
+        <v>-24.73</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5363,13 +6403,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-21.24</v>
+        <v>-24.62</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5383,13 +6423,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-20.63</v>
+        <v>-24.53</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -5403,13 +6443,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-20.03</v>
+        <v>-24.44</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -5423,13 +6463,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-19.43</v>
+        <v>-24.36</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -5443,13 +6483,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-18.83</v>
+        <v>-24.3</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5463,13 +6503,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-18.23</v>
+        <v>-24.24</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
@@ -5483,13 +6523,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-17.63</v>
+        <v>-24.18</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
@@ -5503,13 +6543,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-17.03</v>
+        <v>-24.13</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
@@ -5523,16 +6563,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-16.43</v>
+        <v>-24.09</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E74" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -5543,13 +6583,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-15.83</v>
+        <v>-24.05</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E75" t="n">
         <v>-0</v>
@@ -5563,16 +6603,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-15.23</v>
+        <v>-24.02</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -5583,13 +6623,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-14.63</v>
+        <v>-23.99</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E77" t="n">
         <v>-0</v>
@@ -5603,16 +6643,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-14.03</v>
+        <v>-23.96</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5623,13 +6663,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-13.43</v>
+        <v>-23.94</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E79" t="n">
         <v>-0</v>
@@ -5643,16 +6683,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-12.84</v>
+        <v>-23.92</v>
       </c>
       <c r="C80" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E80" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5663,16 +6703,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-12.24</v>
+        <v>-23.9</v>
       </c>
       <c r="C81" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5683,16 +6723,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-11.64</v>
+        <v>-23.88</v>
       </c>
       <c r="C82" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E82" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5703,13 +6743,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-11.04</v>
+        <v>-23.87</v>
       </c>
       <c r="C83" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E83" t="n">
         <v>-0</v>
@@ -5723,16 +6763,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-10.44</v>
+        <v>-23.86</v>
       </c>
       <c r="C84" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5743,16 +6783,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.85</v>
+        <v>-23.84</v>
       </c>
       <c r="C85" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.05</v>
+        <v>-0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5763,16 +6803,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-9.26</v>
+        <v>-23.83</v>
       </c>
       <c r="C86" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -5783,16 +6823,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-8.67</v>
+        <v>-23.82</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.12</v>
+        <v>-0</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5803,16 +6843,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-8.1</v>
+        <v>-23.82</v>
       </c>
       <c r="C88" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.11</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -5823,18 +6863,538 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-7.52</v>
+        <v>-23.81</v>
       </c>
       <c r="C89" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.19</v>
+        <v>-0</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-23.78</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-23.78</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-23.78</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-23.78</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-23.78</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-23.77</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5849,7 +7409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5897,7 +7457,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-52.2</v>
+        <v>-55.02</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5917,7 +7477,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.54</v>
+        <v>-54.36</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5937,7 +7497,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-50.89</v>
+        <v>-53.71</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5957,7 +7517,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.24</v>
+        <v>-53.07</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5977,7 +7537,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.6</v>
+        <v>-52.42</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5997,7 +7557,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-48.96</v>
+        <v>-51.79</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -6017,7 +7577,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-48.33</v>
+        <v>-51.15</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -6037,7 +7597,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-47.7</v>
+        <v>-50.52</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -6057,7 +7617,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-47.08</v>
+        <v>-49.9</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6077,7 +7637,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-46.45</v>
+        <v>-49.28</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6097,7 +7657,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-45.83</v>
+        <v>-48.65</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6117,7 +7677,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-45.21</v>
+        <v>-48.04</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6137,7 +7697,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-44.6</v>
+        <v>-47.42</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6157,7 +7717,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-43.98</v>
+        <v>-46.81</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6177,7 +7737,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-43.37</v>
+        <v>-46.19</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6197,7 +7757,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-42.76</v>
+        <v>-45.58</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6217,7 +7777,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-42.15</v>
+        <v>-44.97</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6237,7 +7797,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-41.54</v>
+        <v>-44.36</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6257,7 +7817,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-40.93</v>
+        <v>-43.75</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6277,7 +7837,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-40.32</v>
+        <v>-43.15</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6297,7 +7857,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-39.72</v>
+        <v>-42.54</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6317,7 +7877,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-39.11</v>
+        <v>-41.94</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6337,7 +7897,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-38.51</v>
+        <v>-41.33</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6357,7 +7917,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-37.9</v>
+        <v>-40.73</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6377,7 +7937,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-37.3</v>
+        <v>-40.12</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6397,7 +7957,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-36.7</v>
+        <v>-39.52</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6417,7 +7977,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-36.09</v>
+        <v>-38.92</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6437,7 +7997,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-35.49</v>
+        <v>-38.31</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6457,7 +8017,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-34.89</v>
+        <v>-37.71</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6477,7 +8037,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-34.28</v>
+        <v>-37.11</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6497,7 +8057,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-33.68</v>
+        <v>-36.51</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6517,7 +8077,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-33.08</v>
+        <v>-35.9</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6537,7 +8097,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-32.48</v>
+        <v>-35.3</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6557,7 +8117,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-31.88</v>
+        <v>-34.7</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6577,7 +8137,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-31.28</v>
+        <v>-34.1</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6597,7 +8157,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-30.68</v>
+        <v>-33.5</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6617,7 +8177,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-30.07</v>
+        <v>-32.9</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6637,7 +8197,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-29.47</v>
+        <v>-32.3</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6657,7 +8217,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-28.87</v>
+        <v>-31.7</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6677,7 +8237,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-28.27</v>
+        <v>-31.1</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6697,7 +8257,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-27.67</v>
+        <v>-30.5</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -6717,10 +8277,10 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-27.07</v>
+        <v>-29.89</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E43" t="n">
         <v>1.57</v>
@@ -6737,10 +8297,10 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-26.47</v>
+        <v>-29.33</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E44" t="n">
         <v>1.57</v>
@@ -6757,10 +8317,10 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-25.87</v>
+        <v>-28.79</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E45" t="n">
         <v>1.57</v>
@@ -6777,10 +8337,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-25.27</v>
+        <v>-28.28</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -6797,10 +8357,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-24.67</v>
+        <v>-27.79</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -6817,10 +8377,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-24.07</v>
+        <v>-27.32</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -6837,10 +8397,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.47</v>
+        <v>-26.88</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -6857,10 +8417,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-22.87</v>
+        <v>-26.48</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6877,10 +8437,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-22.27</v>
+        <v>-26.12</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6897,10 +8457,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-21.67</v>
+        <v>-25.81</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6917,10 +8477,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-21.07</v>
+        <v>-25.53</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6937,10 +8497,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-20.47</v>
+        <v>-25.28</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6957,10 +8517,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-19.87</v>
+        <v>-25.06</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6977,10 +8537,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-19.27</v>
+        <v>-24.86</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6997,10 +8557,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-18.67</v>
+        <v>-24.69</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -7017,10 +8577,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-18.07</v>
+        <v>-24.53</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -7037,10 +8597,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-17.47</v>
+        <v>-24.39</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -7057,10 +8617,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-16.87</v>
+        <v>-24.27</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7077,10 +8637,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-16.27</v>
+        <v>-24.16</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7097,10 +8657,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-15.67</v>
+        <v>-24.07</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7117,10 +8677,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-15.07</v>
+        <v>-23.98</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7137,10 +8697,10 @@
         <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-14.47</v>
+        <v>-23.9</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E64" t="n">
         <v>1.57</v>
@@ -7157,10 +8717,10 @@
         <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-13.87</v>
+        <v>-23.84</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E65" t="n">
         <v>1.57</v>
@@ -7177,10 +8737,10 @@
         <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-13.27</v>
+        <v>-23.77</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E66" t="n">
         <v>1.57</v>
@@ -7194,16 +8754,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.67</v>
+        <v>-23.72</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E67" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7214,16 +8774,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.07</v>
+        <v>-23.67</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E68" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7234,16 +8794,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.47</v>
+        <v>-23.63</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E69" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7254,16 +8814,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-10.87</v>
+        <v>-23.59</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E70" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7274,16 +8834,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.28</v>
+        <v>-23.56</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E71" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7294,16 +8854,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.86</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-9.68</v>
+        <v>-23.53</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E72" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7314,16 +8874,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.74</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-9.09</v>
+        <v>-23.5</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E73" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7334,16 +8894,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-8.51</v>
+        <v>-23.48</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E74" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7354,16 +8914,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.44</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-7.93</v>
+        <v>-23.46</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E75" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7374,16 +8934,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-7.36</v>
+        <v>-23.44</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E76" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7394,16 +8954,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.04</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.8</v>
+        <v>-23.42</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E77" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7414,16 +8974,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.25</v>
+        <v>-23.41</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E78" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7434,16 +8994,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.54</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.71</v>
+        <v>-23.4</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E79" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7454,16 +9014,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.26</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.18</v>
+        <v>-23.38</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E80" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7474,16 +9034,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.67</v>
+        <v>-23.37</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E81" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7494,16 +9054,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.16</v>
+        <v>-23.36</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E82" t="n">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7514,16 +9074,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.73</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-3.68</v>
+        <v>-23.36</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.11</v>
       </c>
       <c r="E83" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7534,16 +9094,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.21</v>
+        <v>-23.35</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E84" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7554,16 +9114,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.49</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.75</v>
+        <v>-23.34</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7574,16 +9134,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.91</v>
+        <v>-2</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.32</v>
+        <v>-23.34</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.08</v>
       </c>
       <c r="E86" t="n">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7594,16 +9154,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.34</v>
+        <v>-2</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.9</v>
+        <v>-23.33</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7614,16 +9174,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.79</v>
+        <v>-2</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.51</v>
+        <v>-23.33</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="E88" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -7634,18 +9194,538 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.26</v>
+        <v>-2</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.13</v>
+        <v>-23.33</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E89" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-23.32</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-23.32</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-23.32</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-23.32</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-23.32</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-23.31</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-23.27</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-23.21</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-23.12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/FCFS/1.xlsx
+++ b/Data/Excel/FCFS/1.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.87</v>
+        <v>50.47</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54.34</v>
+        <v>49.93</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.81</v>
+        <v>49.4</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.27</v>
+        <v>48.87</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52.74</v>
+        <v>48.33</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52.21</v>
+        <v>47.8</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.67</v>
+        <v>47.27</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51.14</v>
+        <v>46.73</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.61</v>
+        <v>46.2</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>50.07</v>
+        <v>45.67</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.54</v>
+        <v>45.13</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.01</v>
+        <v>44.6</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48.47</v>
+        <v>44.07</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.94</v>
+        <v>43.53</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.87</v>
+        <v>42.47</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.34</v>
+        <v>41.93</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.81</v>
+        <v>41.4</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.27</v>
+        <v>40.87</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.74</v>
+        <v>40.33</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.21</v>
+        <v>39.8</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.67</v>
+        <v>39.27</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>43.14</v>
+        <v>38.73</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42.61</v>
+        <v>38.2</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>42.07</v>
+        <v>37.67</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.54</v>
+        <v>37.13</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.01</v>
+        <v>36.6</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.47</v>
+        <v>36.07</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.94</v>
+        <v>35.53</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.41</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.87</v>
+        <v>34.47</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38.34</v>
+        <v>33.93</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.81</v>
+        <v>33.4</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>37.27</v>
+        <v>32.87</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.74</v>
+        <v>32.33</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.21</v>
+        <v>31.8</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.67</v>
+        <v>31.27</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35.14</v>
+        <v>30.73</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.61</v>
+        <v>30.2</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.07</v>
+        <v>29.67</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.54</v>
+        <v>29.13</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>33.01</v>
+        <v>28.6</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>32.47</v>
+        <v>28.07</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.94</v>
+        <v>27.53</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.41</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.87</v>
+        <v>26.47</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.34</v>
+        <v>25.93</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.81</v>
+        <v>25.4</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.27</v>
+        <v>24.87</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.74</v>
+        <v>24.33</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.21</v>
+        <v>23.8</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.67</v>
+        <v>23.27</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>27.14</v>
+        <v>22.73</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.61</v>
+        <v>22.2</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.07</v>
+        <v>21.67</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.54</v>
+        <v>21.13</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.01</v>
+        <v>20.6</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.47</v>
+        <v>20.07</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.94</v>
+        <v>19.53</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.41</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.87</v>
+        <v>18.47</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.34</v>
+        <v>17.93</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.81</v>
+        <v>17.4</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.27</v>
+        <v>16.87</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.74</v>
+        <v>16.33</v>
       </c>
       <c r="C66" t="n">
         <v>-2</v>
@@ -1761,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.21</v>
+        <v>15.8</v>
       </c>
       <c r="C67" t="n">
         <v>-2</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.67</v>
+        <v>15.27</v>
       </c>
       <c r="C68" t="n">
         <v>-2</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19.14</v>
+        <v>14.73</v>
       </c>
       <c r="C69" t="n">
         <v>-2</v>
@@ -1821,7 +1821,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18.61</v>
+        <v>14.2</v>
       </c>
       <c r="C70" t="n">
         <v>-2</v>
@@ -1841,7 +1841,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18.07</v>
+        <v>13.67</v>
       </c>
       <c r="C71" t="n">
         <v>-2</v>
@@ -1861,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17.54</v>
+        <v>13.13</v>
       </c>
       <c r="C72" t="n">
         <v>-2</v>
@@ -1881,16 +1881,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17.01</v>
+        <v>12.6</v>
       </c>
       <c r="C73" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.47</v>
+        <v>12.07</v>
       </c>
       <c r="C74" t="n">
-        <v>-2</v>
+        <v>-2.07</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.94</v>
+        <v>11.54</v>
       </c>
       <c r="C75" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.41</v>
+        <v>11</v>
       </c>
       <c r="C76" t="n">
-        <v>-2</v>
+        <v>-2.03</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.87</v>
+        <v>10.47</v>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="E77" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.34</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="E78" t="n">
-        <v>3.14</v>
+        <v>3.09</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.81</v>
+        <v>9.5</v>
       </c>
       <c r="C79" t="n">
-        <v>-2</v>
+        <v>-1.82</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="E79" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.27</v>
+        <v>9.06</v>
       </c>
       <c r="C80" t="n">
-        <v>-2</v>
+        <v>-1.72</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="E80" t="n">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.74</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.06</v>
+        <v>-1.62</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,678 +2061,18 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.21</v>
+        <v>8.31</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.08</v>
+        <v>-1.59</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="E82" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-2.07</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8</v>
-      </c>
-      <c r="E83" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-2.04</v>
-      </c>
-      <c r="D84" t="n">
-        <v>8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="D85" t="n">
-        <v>8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-1.92</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.83</v>
-      </c>
-      <c r="D87" t="n">
-        <v>8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.73</v>
-      </c>
-      <c r="D88" t="n">
-        <v>8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="D89" t="n">
-        <v>8</v>
-      </c>
-      <c r="E89" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.45</v>
-      </c>
-      <c r="D90" t="n">
-        <v>8</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-1.29</v>
-      </c>
-      <c r="D91" t="n">
-        <v>8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="D92" t="n">
-        <v>8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="D93" t="n">
-        <v>8</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="D94" t="n">
-        <v>8</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.45</v>
-      </c>
-      <c r="D95" t="n">
-        <v>8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="D96" t="n">
-        <v>8</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D97" t="n">
-        <v>8</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D98" t="n">
-        <v>8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D99" t="n">
-        <v>8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D100" t="n">
-        <v>8</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="D101" t="n">
-        <v>8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="D102" t="n">
-        <v>8</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="D103" t="n">
-        <v>8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="D104" t="n">
-        <v>8</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="D105" t="n">
-        <v>8</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="D106" t="n">
-        <v>8</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="C107" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="D107" t="n">
-        <v>8</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="D108" t="n">
-        <v>8</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C109" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D110" t="n">
-        <v>8</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="C111" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="C112" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2747,7 +2087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>54.44</v>
+        <v>47.07</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2815,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.78</v>
+        <v>46.41</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2835,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>53.13</v>
+        <v>45.76</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2855,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>52.49</v>
+        <v>45.11</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2875,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>51.84</v>
+        <v>44.47</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2895,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>51.21</v>
+        <v>43.83</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2915,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>50.57</v>
+        <v>43.2</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2935,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>49.94</v>
+        <v>42.57</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2955,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>49.32</v>
+        <v>41.95</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2975,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7</v>
+        <v>41.32</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2995,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>48.07</v>
+        <v>40.7</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -3015,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>47.46</v>
+        <v>40.08</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -3035,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>46.84</v>
+        <v>39.47</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -3055,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>46.23</v>
+        <v>38.85</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -3075,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>45.61</v>
+        <v>38.24</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -3095,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>37.63</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -3115,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>44.39</v>
+        <v>37.02</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -3135,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>43.78</v>
+        <v>36.41</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -3155,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>43.17</v>
+        <v>35.8</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -3175,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>42.57</v>
+        <v>35.19</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -3195,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>41.96</v>
+        <v>34.59</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -3215,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>41.36</v>
+        <v>33.98</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -3235,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>40.75</v>
+        <v>33.38</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -3255,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>40.15</v>
+        <v>32.77</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -3275,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>39.54</v>
+        <v>32.17</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -3295,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>38.94</v>
+        <v>31.57</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -3315,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.34</v>
+        <v>30.96</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -3335,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>37.73</v>
+        <v>30.36</v>
       </c>
       <c r="D29" t="n">
-        <v>9.039999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>-1.57</v>
@@ -3355,10 +2695,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>37.13</v>
+        <v>29.79</v>
       </c>
       <c r="D30" t="n">
-        <v>9.029999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="E30" t="n">
         <v>-1.57</v>
@@ -3375,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>36.53</v>
+        <v>29.25</v>
       </c>
       <c r="D31" t="n">
-        <v>9.029999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="E31" t="n">
         <v>-1.57</v>
@@ -3395,10 +2735,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>35.93</v>
+        <v>28.74</v>
       </c>
       <c r="D32" t="n">
-        <v>9.029999999999999</v>
+        <v>7.34</v>
       </c>
       <c r="E32" t="n">
         <v>-1.57</v>
@@ -3415,10 +2755,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>35.32</v>
+        <v>28.25</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02</v>
+        <v>7.02</v>
       </c>
       <c r="E33" t="n">
         <v>-1.57</v>
@@ -3435,10 +2775,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>34.72</v>
+        <v>27.78</v>
       </c>
       <c r="D34" t="n">
-        <v>9.02</v>
+        <v>6.74</v>
       </c>
       <c r="E34" t="n">
         <v>-1.57</v>
@@ -3455,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>34.12</v>
+        <v>27.33</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>5.99</v>
       </c>
       <c r="E35" t="n">
         <v>-1.57</v>
@@ -3475,10 +2815,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>33.52</v>
+        <v>26.93</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>5.33</v>
       </c>
       <c r="E36" t="n">
         <v>-1.57</v>
@@ -3495,10 +2835,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>32.92</v>
+        <v>26.58</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>4.73</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -3515,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>32.32</v>
+        <v>26.26</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>4.21</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -3535,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>31.72</v>
+        <v>25.98</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>3.74</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -3555,10 +2895,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>31.12</v>
+        <v>25.73</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>3.32</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -3575,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>30.52</v>
+        <v>25.51</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>2.96</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -3595,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>29.92</v>
+        <v>25.31</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>2.63</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3615,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>29.31</v>
+        <v>25.14</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>2.34</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -3635,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>28.71</v>
+        <v>24.98</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>2.08</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -3655,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>28.11</v>
+        <v>24.84</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>1.85</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -3675,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>27.51</v>
+        <v>24.72</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -3695,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>26.91</v>
+        <v>24.61</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>1.46</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -3715,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>26.31</v>
+        <v>24.51</v>
       </c>
       <c r="D48" t="n">
-        <v>8.5</v>
+        <v>1.3</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3735,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>25.75</v>
+        <v>24.43</v>
       </c>
       <c r="D49" t="n">
-        <v>8.06</v>
+        <v>1.15</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3755,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>25.21</v>
+        <v>24.35</v>
       </c>
       <c r="D50" t="n">
-        <v>7.66</v>
+        <v>1.02</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3775,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>24.7</v>
+        <v>24.28</v>
       </c>
       <c r="D51" t="n">
-        <v>7.31</v>
+        <v>0.91</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3795,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>24.21</v>
+        <v>24.22</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3815,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>23.74</v>
+        <v>24.17</v>
       </c>
       <c r="D53" t="n">
-        <v>6.72</v>
+        <v>0.72</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3835,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>23.3</v>
+        <v>24.12</v>
       </c>
       <c r="D54" t="n">
-        <v>5.98</v>
+        <v>0.64</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3855,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>22.9</v>
+        <v>24.08</v>
       </c>
       <c r="D55" t="n">
-        <v>5.31</v>
+        <v>0.57</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3875,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>22.54</v>
+        <v>24.04</v>
       </c>
       <c r="D56" t="n">
-        <v>4.72</v>
+        <v>0.51</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3895,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>22.23</v>
+        <v>24.01</v>
       </c>
       <c r="D57" t="n">
-        <v>4.2</v>
+        <v>0.45</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3915,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>21.95</v>
+        <v>23.98</v>
       </c>
       <c r="D58" t="n">
-        <v>3.73</v>
+        <v>0.4</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3935,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>21.7</v>
+        <v>23.95</v>
       </c>
       <c r="D59" t="n">
-        <v>3.32</v>
+        <v>0.35</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3955,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>21.48</v>
+        <v>23.93</v>
       </c>
       <c r="D60" t="n">
-        <v>2.95</v>
+        <v>0.32</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3975,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>21.28</v>
+        <v>23.91</v>
       </c>
       <c r="D61" t="n">
-        <v>2.62</v>
+        <v>0.28</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3995,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>21.11</v>
+        <v>23.89</v>
       </c>
       <c r="D62" t="n">
-        <v>2.33</v>
+        <v>0.25</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -4015,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>20.95</v>
+        <v>23.87</v>
       </c>
       <c r="D63" t="n">
-        <v>2.07</v>
+        <v>0.22</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -4035,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>20.81</v>
+        <v>23.86</v>
       </c>
       <c r="D64" t="n">
-        <v>1.84</v>
+        <v>0.2</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -4055,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>20.69</v>
+        <v>23.84</v>
       </c>
       <c r="D65" t="n">
-        <v>1.64</v>
+        <v>0.17</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -4075,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>20.58</v>
+        <v>23.83</v>
       </c>
       <c r="D66" t="n">
-        <v>1.45</v>
+        <v>0.16</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -4095,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>20.49</v>
+        <v>23.82</v>
       </c>
       <c r="D67" t="n">
-        <v>1.29</v>
+        <v>0.14</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -4115,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>20.4</v>
+        <v>23.81</v>
       </c>
       <c r="D68" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -4135,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>20.32</v>
+        <v>23.8</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02</v>
+        <v>0.11</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -4155,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>20.26</v>
+        <v>23.8</v>
       </c>
       <c r="D70" t="n">
-        <v>0.91</v>
+        <v>0.1</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -4175,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>20.19</v>
+        <v>23.79</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -4195,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>20.14</v>
+        <v>23.78</v>
       </c>
       <c r="D72" t="n">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -4215,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>20.09</v>
+        <v>23.78</v>
       </c>
       <c r="D73" t="n">
-        <v>0.64</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -4235,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>20.05</v>
+        <v>23.77</v>
       </c>
       <c r="D74" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -4255,10 +3595,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>20.01</v>
+        <v>23.77</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -4275,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>19.98</v>
+        <v>23.77</v>
       </c>
       <c r="D76" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E76" t="n">
         <v>-1.57</v>
@@ -4295,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>19.95</v>
+        <v>23.76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E77" t="n">
         <v>-1.57</v>
@@ -4315,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>19.92</v>
+        <v>23.76</v>
       </c>
       <c r="D78" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -4335,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>19.9</v>
+        <v>23.76</v>
       </c>
       <c r="D79" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="E79" t="n">
         <v>-1.57</v>
@@ -4355,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>19.88</v>
+        <v>23.76</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E80" t="n">
         <v>-1.57</v>
@@ -4375,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>19.86</v>
+        <v>23.75</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E81" t="n">
         <v>-1.57</v>
@@ -4395,675 +3735,15 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>19.84</v>
+        <v>23.75</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="E82" t="n">
         <v>-1.57</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>19.82</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="D93" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="D95" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2</v>
-      </c>
-      <c r="C96" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>15.14</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>14.65</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-1.57</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="D108" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C109" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D109" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="C110" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="D110" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-1.56</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="C111" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="D111" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="C112" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="D112" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="D113" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-1.62</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="D114" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="C115" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="D115" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5078,7 +3758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5123,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-58.48</v>
+        <v>-52.78</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -5143,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-57.83</v>
+        <v>-52.12</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5163,7 +3843,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-57.17</v>
+        <v>-51.46</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -5183,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-56.53</v>
+        <v>-50.82</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -5203,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.88</v>
+        <v>-50.18</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -5223,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-55.25</v>
+        <v>-49.54</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -5243,7 +3923,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-54.61</v>
+        <v>-48.91</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -5263,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-53.99</v>
+        <v>-48.28</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -5283,7 +3963,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-53.36</v>
+        <v>-47.65</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -5303,7 +3983,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-52.74</v>
+        <v>-47.03</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -5323,7 +4003,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-52.12</v>
+        <v>-46.41</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -5343,7 +4023,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-51.5</v>
+        <v>-45.79</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -5363,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-50.88</v>
+        <v>-45.17</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -5383,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.27</v>
+        <v>-44.56</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -5403,7 +4083,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-49.65</v>
+        <v>-43.95</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -5423,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-49.04</v>
+        <v>-43.33</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -5443,7 +4123,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-48.43</v>
+        <v>-42.72</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -5463,7 +4143,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-47.82</v>
+        <v>-42.12</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -5483,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-47.22</v>
+        <v>-41.51</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -5503,7 +4183,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-46.61</v>
+        <v>-40.9</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -5523,7 +4203,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-46</v>
+        <v>-40.29</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -5543,7 +4223,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-45.4</v>
+        <v>-39.69</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -5563,7 +4243,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-44.79</v>
+        <v>-39.08</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -5583,7 +4263,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-44.19</v>
+        <v>-38.48</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -5603,7 +4283,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-43.58</v>
+        <v>-37.88</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -5623,7 +4303,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-42.98</v>
+        <v>-37.27</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -5643,7 +4323,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-42.38</v>
+        <v>-36.67</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -5663,7 +4343,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-41.77</v>
+        <v>-36.07</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -5683,7 +4363,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-41.17</v>
+        <v>-35.46</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -5703,7 +4383,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-40.57</v>
+        <v>-34.86</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -5723,7 +4403,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-39.97</v>
+        <v>-34.26</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -5743,7 +4423,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-39.37</v>
+        <v>-33.66</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -5763,7 +4443,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-38.76</v>
+        <v>-33.06</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -5783,7 +4463,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-38.16</v>
+        <v>-32.45</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -5803,7 +4483,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-37.56</v>
+        <v>-31.85</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -5823,7 +4503,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-36.96</v>
+        <v>-31.25</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -5843,7 +4523,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-36.36</v>
+        <v>-30.65</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -5863,13 +4543,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-35.76</v>
+        <v>-30.05</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E39" t="n">
         <v>-0</v>
@@ -5883,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-35.16</v>
+        <v>-29.48</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>8.07</v>
       </c>
       <c r="E40" t="n">
         <v>-0</v>
@@ -5903,13 +4583,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-34.56</v>
+        <v>-28.95</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E41" t="n">
         <v>-0</v>
@@ -5923,13 +4603,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-33.96</v>
+        <v>-28.43</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>7.32</v>
       </c>
       <c r="E42" t="n">
         <v>-0</v>
@@ -5943,13 +4623,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-33.36</v>
+        <v>-27.95</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
         <v>-0</v>
@@ -5963,13 +4643,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-32.76</v>
+        <v>-27.48</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>6.73</v>
       </c>
       <c r="E44" t="n">
         <v>-0</v>
@@ -5983,13 +4663,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-32.15</v>
+        <v>-27.03</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>5.98</v>
       </c>
       <c r="E45" t="n">
         <v>-0</v>
@@ -6003,13 +4683,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-31.55</v>
+        <v>-26.63</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E46" t="n">
         <v>-0</v>
@@ -6023,13 +4703,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-30.95</v>
+        <v>-26.28</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E47" t="n">
         <v>-0</v>
@@ -6043,13 +4723,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-30.35</v>
+        <v>-25.96</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="E48" t="n">
         <v>-0</v>
@@ -6063,13 +4743,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-29.79</v>
+        <v>-25.68</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>8.06</v>
+        <v>3.73</v>
       </c>
       <c r="E49" t="n">
         <v>-0</v>
@@ -6083,13 +4763,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-29.25</v>
+        <v>-25.43</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>7.66</v>
+        <v>3.32</v>
       </c>
       <c r="E50" t="n">
         <v>-0</v>
@@ -6103,13 +4783,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-28.74</v>
+        <v>-25.21</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>7.31</v>
+        <v>2.95</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -6123,13 +4803,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-28.25</v>
+        <v>-25.02</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>2.62</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -6143,13 +4823,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-27.78</v>
+        <v>-24.84</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>6.72</v>
+        <v>2.33</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -6163,13 +4843,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-27.34</v>
+        <v>-24.69</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>5.98</v>
+        <v>2.07</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -6183,13 +4863,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-26.94</v>
+        <v>-24.55</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>5.31</v>
+        <v>1.84</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -6203,13 +4883,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-26.58</v>
+        <v>-24.43</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>4.72</v>
+        <v>1.64</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -6223,13 +4903,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-26.27</v>
+        <v>-24.32</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>4.2</v>
+        <v>1.45</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -6243,13 +4923,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-25.99</v>
+        <v>-24.22</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>3.73</v>
+        <v>1.29</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -6263,13 +4943,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.74</v>
+        <v>-24.13</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>3.32</v>
+        <v>1.15</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -6283,13 +4963,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-25.52</v>
+        <v>-24.06</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>2.95</v>
+        <v>1.02</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -6303,13 +4983,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-25.32</v>
+        <v>-23.99</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2.62</v>
+        <v>0.91</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -6323,13 +5003,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-25.15</v>
+        <v>-23.93</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -6343,13 +5023,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-24.99</v>
+        <v>-23.87</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>2.07</v>
+        <v>0.72</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -6363,13 +5043,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-24.86</v>
+        <v>-23.83</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>1.84</v>
+        <v>0.64</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -6383,13 +5063,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-24.73</v>
+        <v>-23.78</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1.64</v>
+        <v>0.57</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -6403,13 +5083,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-24.62</v>
+        <v>-23.75</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>1.45</v>
+        <v>0.5</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -6423,13 +5103,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-24.53</v>
+        <v>-23.71</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>1.29</v>
+        <v>0.45</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -6443,13 +5123,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-24.44</v>
+        <v>-23.68</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>1.15</v>
+        <v>0.4</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -6463,13 +5143,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-24.36</v>
+        <v>-23.66</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>1.02</v>
+        <v>0.35</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -6483,16 +5163,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-24.3</v>
+        <v>-23.63</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>0.91</v>
+        <v>0.31</v>
       </c>
       <c r="E70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -6503,13 +5183,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-24.24</v>
+        <v>-23.61</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
@@ -6523,16 +5203,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-24.18</v>
+        <v>-23.59</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>0.72</v>
+        <v>0.25</v>
       </c>
       <c r="E72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -6543,13 +5223,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-24.13</v>
+        <v>-23.58</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
@@ -6563,13 +5243,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-24.09</v>
+        <v>-23.56</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>0.57</v>
+        <v>0.2</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -6583,13 +5263,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-24.05</v>
+        <v>-23.55</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="E75" t="n">
         <v>-0</v>
@@ -6603,13 +5283,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-24.02</v>
+        <v>-23.54</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -6623,13 +5303,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-23.99</v>
+        <v>-23.53</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="E77" t="n">
         <v>-0</v>
@@ -6643,13 +5323,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.96</v>
+        <v>-23.52</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -6663,13 +5343,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.94</v>
+        <v>-23.48</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>0.31</v>
+        <v>1.05</v>
       </c>
       <c r="E79" t="n">
         <v>-0</v>
@@ -6683,13 +5363,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-23.92</v>
+        <v>-23.41</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>0.28</v>
+        <v>1.44</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -6703,13 +5383,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-23.9</v>
+        <v>-23.31</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25</v>
+        <v>1.78</v>
       </c>
       <c r="E81" t="n">
         <v>-0</v>
@@ -6723,678 +5403,18 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-23.88</v>
+        <v>-23.19</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.22</v>
+        <v>2.08</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-23.87</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-23.86</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-23.84</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-23.83</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-23.82</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-23.82</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-23.81</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-23.8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-23.8</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-23.79</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-23.79</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-23.79</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-23.79</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-23.78</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-23.78</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-23.78</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-23.78</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-23.78</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C110" t="n">
-        <v>2</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C111" t="n">
-        <v>2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C112" t="n">
-        <v>2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-23.77</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7409,7 +5429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7457,7 +5477,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-55.02</v>
+        <v>-45.61</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -7477,7 +5497,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-54.36</v>
+        <v>-44.95</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -7497,7 +5517,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-53.71</v>
+        <v>-44.3</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -7517,7 +5537,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-53.07</v>
+        <v>-43.65</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -7537,7 +5557,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-52.42</v>
+        <v>-43.01</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -7557,7 +5577,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-51.79</v>
+        <v>-42.38</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -7577,7 +5597,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-51.15</v>
+        <v>-41.74</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -7597,7 +5617,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-50.52</v>
+        <v>-41.11</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -7617,7 +5637,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-49.9</v>
+        <v>-40.49</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -7637,7 +5657,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-49.28</v>
+        <v>-39.87</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -7657,7 +5677,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-48.65</v>
+        <v>-39.24</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -7677,7 +5697,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-48.04</v>
+        <v>-38.63</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -7697,7 +5717,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-47.42</v>
+        <v>-38.01</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -7717,7 +5737,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-46.81</v>
+        <v>-37.4</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -7737,7 +5757,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-46.19</v>
+        <v>-36.78</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -7757,7 +5777,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-45.58</v>
+        <v>-36.17</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -7777,7 +5797,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-44.97</v>
+        <v>-35.56</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -7797,7 +5817,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-44.36</v>
+        <v>-34.95</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -7817,7 +5837,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-43.75</v>
+        <v>-34.34</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -7837,7 +5857,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-43.15</v>
+        <v>-33.74</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -7857,7 +5877,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-42.54</v>
+        <v>-33.13</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -7877,7 +5897,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-41.94</v>
+        <v>-32.53</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -7897,7 +5917,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-41.33</v>
+        <v>-31.92</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -7917,7 +5937,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-40.73</v>
+        <v>-31.32</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -7937,7 +5957,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-40.12</v>
+        <v>-30.71</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -7957,7 +5977,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-39.52</v>
+        <v>-30.11</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -7977,7 +5997,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-38.92</v>
+        <v>-29.51</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -7997,7 +6017,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-38.31</v>
+        <v>-28.9</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -8017,7 +6037,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-37.71</v>
+        <v>-28.3</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -8037,7 +6057,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-37.11</v>
+        <v>-27.7</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -8057,7 +6077,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-36.51</v>
+        <v>-27.1</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -8077,7 +6097,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-35.9</v>
+        <v>-26.49</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -8097,7 +6117,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-35.3</v>
+        <v>-25.89</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -8117,7 +6137,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-34.7</v>
+        <v>-25.29</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -8137,7 +6157,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-34.1</v>
+        <v>-24.69</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -8157,7 +6177,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-33.5</v>
+        <v>-24.09</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -8177,7 +6197,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-32.9</v>
+        <v>-23.49</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -8197,7 +6217,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-32.3</v>
+        <v>-22.89</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -8217,7 +6237,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-31.7</v>
+        <v>-22.29</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -8237,7 +6257,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-31.1</v>
+        <v>-21.69</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -8257,7 +6277,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-30.5</v>
+        <v>-21.09</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -8277,10 +6297,10 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-29.89</v>
+        <v>-20.48</v>
       </c>
       <c r="D43" t="n">
-        <v>8.51</v>
+        <v>9.01</v>
       </c>
       <c r="E43" t="n">
         <v>1.57</v>
@@ -8297,10 +6317,10 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-29.33</v>
+        <v>-19.88</v>
       </c>
       <c r="D44" t="n">
-        <v>8.06</v>
+        <v>9.01</v>
       </c>
       <c r="E44" t="n">
         <v>1.57</v>
@@ -8317,10 +6337,10 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-28.79</v>
+        <v>-19.28</v>
       </c>
       <c r="D45" t="n">
-        <v>7.67</v>
+        <v>9.01</v>
       </c>
       <c r="E45" t="n">
         <v>1.57</v>
@@ -8337,10 +6357,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-28.28</v>
+        <v>-18.68</v>
       </c>
       <c r="D46" t="n">
-        <v>7.31</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -8357,10 +6377,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-27.79</v>
+        <v>-18.08</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -8377,10 +6397,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-27.32</v>
+        <v>-17.48</v>
       </c>
       <c r="D48" t="n">
-        <v>6.72</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -8397,10 +6417,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-26.88</v>
+        <v>-16.88</v>
       </c>
       <c r="D49" t="n">
-        <v>5.98</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -8417,10 +6437,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-26.48</v>
+        <v>-16.28</v>
       </c>
       <c r="D50" t="n">
-        <v>5.31</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -8437,10 +6457,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-26.12</v>
+        <v>-15.68</v>
       </c>
       <c r="D51" t="n">
-        <v>4.72</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -8457,10 +6477,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-25.81</v>
+        <v>-15.08</v>
       </c>
       <c r="D52" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -8477,10 +6497,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-25.53</v>
+        <v>-14.48</v>
       </c>
       <c r="D53" t="n">
-        <v>3.73</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -8497,10 +6517,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-25.28</v>
+        <v>-13.88</v>
       </c>
       <c r="D54" t="n">
-        <v>3.32</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -8517,10 +6537,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-25.06</v>
+        <v>-13.28</v>
       </c>
       <c r="D55" t="n">
-        <v>2.95</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -8534,16 +6554,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="C56" t="n">
-        <v>-24.86</v>
+        <v>-12.68</v>
       </c>
       <c r="D56" t="n">
-        <v>2.62</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -8554,16 +6574,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-2</v>
+        <v>-2.07</v>
       </c>
       <c r="C57" t="n">
-        <v>-24.69</v>
+        <v>-12.08</v>
       </c>
       <c r="D57" t="n">
-        <v>2.33</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -8574,16 +6594,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="C58" t="n">
-        <v>-24.53</v>
+        <v>-11.48</v>
       </c>
       <c r="D58" t="n">
-        <v>2.07</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -8594,16 +6614,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-2</v>
+        <v>-2.02</v>
       </c>
       <c r="C59" t="n">
-        <v>-24.39</v>
+        <v>-10.89</v>
       </c>
       <c r="D59" t="n">
-        <v>1.84</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -8614,16 +6634,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2</v>
+        <v>-1.95</v>
       </c>
       <c r="C60" t="n">
-        <v>-24.27</v>
+        <v>-10.29</v>
       </c>
       <c r="D60" t="n">
-        <v>1.64</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -8634,16 +6654,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-2</v>
+        <v>-1.86</v>
       </c>
       <c r="C61" t="n">
-        <v>-24.16</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -8654,16 +6674,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="C62" t="n">
-        <v>-24.07</v>
+        <v>-9.109999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>1.29</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -8674,16 +6694,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2</v>
+        <v>-1.61</v>
       </c>
       <c r="C63" t="n">
-        <v>-23.98</v>
+        <v>-8.52</v>
       </c>
       <c r="D63" t="n">
-        <v>1.15</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -8694,16 +6714,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2</v>
+        <v>-1.44</v>
       </c>
       <c r="C64" t="n">
-        <v>-23.9</v>
+        <v>-7.95</v>
       </c>
       <c r="D64" t="n">
-        <v>1.02</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -8714,16 +6734,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="C65" t="n">
-        <v>-23.84</v>
+        <v>-7.38</v>
       </c>
       <c r="D65" t="n">
-        <v>0.91</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -8734,16 +6754,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2</v>
+        <v>-1.04</v>
       </c>
       <c r="C66" t="n">
-        <v>-23.77</v>
+        <v>-6.82</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8100000000000001</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -8754,16 +6774,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>-23.72</v>
+        <v>-6.26</v>
       </c>
       <c r="D67" t="n">
-        <v>0.72</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -8774,16 +6794,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2</v>
+        <v>-0.55</v>
       </c>
       <c r="C68" t="n">
-        <v>-23.67</v>
+        <v>-5.72</v>
       </c>
       <c r="D68" t="n">
-        <v>0.64</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -8794,16 +6814,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2</v>
+        <v>-0.26</v>
       </c>
       <c r="C69" t="n">
-        <v>-23.63</v>
+        <v>-5.19</v>
       </c>
       <c r="D69" t="n">
-        <v>0.57</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -8814,16 +6834,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2</v>
+        <v>0.04</v>
       </c>
       <c r="C70" t="n">
-        <v>-23.59</v>
+        <v>-4.68</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -8834,16 +6854,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2</v>
+        <v>0.37</v>
       </c>
       <c r="C71" t="n">
-        <v>-23.56</v>
+        <v>-4.17</v>
       </c>
       <c r="D71" t="n">
-        <v>0.45</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -8854,16 +6874,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-2</v>
+        <v>0.72</v>
       </c>
       <c r="C72" t="n">
-        <v>-23.53</v>
+        <v>-3.69</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>1.57</v>
+        <v>1.08</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -8874,16 +6894,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2</v>
+        <v>1.09</v>
       </c>
       <c r="C73" t="n">
-        <v>-23.5</v>
+        <v>-3.22</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -8894,16 +6914,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-2</v>
+        <v>1.48</v>
       </c>
       <c r="C74" t="n">
-        <v>-23.48</v>
+        <v>-2.76</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -8914,16 +6934,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-2</v>
+        <v>1.9</v>
       </c>
       <c r="C75" t="n">
-        <v>-23.46</v>
+        <v>-2.33</v>
       </c>
       <c r="D75" t="n">
-        <v>0.28</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>1.57</v>
+        <v>0.95</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -8934,16 +6954,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2</v>
+        <v>2.33</v>
       </c>
       <c r="C76" t="n">
-        <v>-23.44</v>
+        <v>-1.91</v>
       </c>
       <c r="D76" t="n">
-        <v>0.25</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>1.57</v>
+        <v>0.91</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -8954,16 +6974,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2</v>
+        <v>2.78</v>
       </c>
       <c r="C77" t="n">
-        <v>-23.42</v>
+        <v>-1.52</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>1.57</v>
+        <v>0.86</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -8974,16 +6994,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2</v>
+        <v>3.25</v>
       </c>
       <c r="C78" t="n">
-        <v>-23.41</v>
+        <v>-1.14</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>1.57</v>
+        <v>0.82</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -8994,16 +7014,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2</v>
+        <v>3.73</v>
       </c>
       <c r="C79" t="n">
-        <v>-23.4</v>
+        <v>-0.79</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
-        <v>1.57</v>
+        <v>0.77</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -9014,16 +7034,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2</v>
+        <v>4.24</v>
       </c>
       <c r="C80" t="n">
-        <v>-23.38</v>
+        <v>-0.46</v>
       </c>
       <c r="D80" t="n">
-        <v>0.16</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>1.57</v>
+        <v>0.73</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -9034,16 +7054,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2</v>
+        <v>4.75</v>
       </c>
       <c r="C81" t="n">
-        <v>-23.37</v>
+        <v>-0.15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.14</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>1.57</v>
+        <v>0.68</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -9054,678 +7074,18 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2</v>
+        <v>5.22</v>
       </c>
       <c r="C82" t="n">
-        <v>-23.36</v>
+        <v>0.2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.12</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>1.57</v>
+        <v>0.64</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-23.36</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-23.35</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-23.34</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-23.34</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-23.33</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-23.33</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-23.33</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-23.32</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-23.32</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-23.32</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-23.32</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-23.32</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C99" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C105" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>-23.31</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C109" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C110" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>-23.27</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C114" t="n">
-        <v>-23.21</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>-23.12</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F115" t="b">
         <v>0</v>
       </c>
     </row>
